--- a/Statistics.xlsx
+++ b/Statistics.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Corvus\Documents\CSE LAB VI Semester\AI Lab\AI-assignments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D9967A1-3578-4756-8550-BED2AD4A42EE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4FFB1C4-6375-4CFF-8294-90AA443C1FA5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -413,8 +413,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -884,8 +884,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EDB7404-E0CA-48BA-85E8-AB2EDCD4672B}">
   <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Statistics.xlsx
+++ b/Statistics.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Corvus\Documents\CSE LAB VI Semester\AI Lab\AI-assignments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4FFB1C4-6375-4CFF-8294-90AA443C1FA5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A95D2EF-1010-4C0B-985E-EF4BDE971454}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="13">
   <si>
     <t>Horizontal Cells</t>
   </si>
@@ -62,6 +62,9 @@
   </si>
   <si>
     <t>UDLR</t>
+  </si>
+  <si>
+    <t>Size</t>
   </si>
 </sst>
 </file>
@@ -146,6 +149,3868 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$I$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>BFS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$I$2:$I$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>113</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>172</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-01A7-46F7-B747-8C8B9AA44337}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$J$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>DFS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$J$2:$J$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>113</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>167</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-01A7-46F7-B747-8C8B9AA44337}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="516219080"/>
+        <c:axId val="516220392"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="516219080"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="516220392"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="516220392"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="516219080"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$I$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>BFS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$I$2:$I$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>113</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>172</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-52A9-4FCE-B891-D134127721CE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$J$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>DFS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$J$2:$J$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>113</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>167</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-52A9-4FCE-B891-D134127721CE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$K$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>DFID</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$K$2:$K$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>392</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3462</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10857</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>17292</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15508</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-52A9-4FCE-B891-D134127721CE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="516225968"/>
+        <c:axId val="516222032"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="516225968"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="516222032"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="516222032"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="516225968"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$I$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>BFS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$I$2:$I$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>113</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>172</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C1BB-4F1F-AB71-DFEFAA35B402}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$J$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>DFS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$J$2:$J$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>117</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>172</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-C1BB-4F1F-AB71-DFEFAA35B402}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="516221048"/>
+        <c:axId val="516227280"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="516221048"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="516227280"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="516227280"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="516221048"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$I$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>BFS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$I$2:$I$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>113</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>172</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-01B4-462C-8E7A-10C357E751F5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$J$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>DFS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$J$2:$J$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>117</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>172</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-01B4-462C-8E7A-10C357E751F5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$K$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>DFID</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$K$2:$K$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>392</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1507</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4405</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10865</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>17519</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>18686</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-01B4-462C-8E7A-10C357E751F5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="473403392"/>
+        <c:axId val="473403064"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="473403392"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="473403064"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="473403064"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="473403392"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>142008</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>103909</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1097972</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>145473</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9F28035E-6C1D-411B-AA88-5CAEAF1368AC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>183571</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>159326</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>169717</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>20781</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FCECC73A-EC95-4A6E-8164-2D9591277709}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>391392</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>6927</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>107374</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>48491</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7FD071F7-DE7A-4A19-8747-7469D1D0DF22}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>86591</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>6926</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>280554</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>48490</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1997A611-1040-4E32-9CCD-DDF682C19A27}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -411,10 +4276,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:K22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1:K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -429,7 +4294,7 @@
     <col min="8" max="8" width="16.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>8</v>
       </c>
@@ -451,8 +4316,20 @@
       <c r="G1" s="3" t="s">
         <v>9</v>
       </c>
+      <c r="H1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -474,8 +4351,20 @@
       <c r="G2" t="s">
         <v>10</v>
       </c>
+      <c r="H2" s="1">
+        <v>3</v>
+      </c>
+      <c r="I2" s="1">
+        <v>33</v>
+      </c>
+      <c r="J2" s="1">
+        <v>15</v>
+      </c>
+      <c r="K2" s="1">
+        <v>392</v>
+      </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
       <c r="B3" s="1" t="s">
         <v>6</v>
@@ -495,8 +4384,20 @@
       <c r="G3" t="s">
         <v>10</v>
       </c>
+      <c r="H3" s="1">
+        <v>4</v>
+      </c>
+      <c r="I3" s="1">
+        <v>53</v>
+      </c>
+      <c r="J3" s="1">
+        <v>33</v>
+      </c>
+      <c r="K3" s="1">
+        <v>1500</v>
+      </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="2"/>
       <c r="B4" s="1" t="s">
         <v>7</v>
@@ -516,8 +4417,20 @@
       <c r="G4" t="s">
         <v>10</v>
       </c>
+      <c r="H4" s="1">
+        <v>5</v>
+      </c>
+      <c r="I4" s="1">
+        <v>88</v>
+      </c>
+      <c r="J4" s="1">
+        <v>56</v>
+      </c>
+      <c r="K4" s="1">
+        <v>3462</v>
+      </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>2</v>
       </c>
@@ -539,8 +4452,20 @@
       <c r="G5" t="s">
         <v>10</v>
       </c>
+      <c r="H5" s="1">
+        <v>6</v>
+      </c>
+      <c r="I5" s="1">
+        <v>113</v>
+      </c>
+      <c r="J5" s="1">
+        <v>91</v>
+      </c>
+      <c r="K5" s="1">
+        <v>10857</v>
+      </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="2"/>
       <c r="B6" s="1" t="s">
         <v>6</v>
@@ -560,8 +4485,20 @@
       <c r="G6" t="s">
         <v>10</v>
       </c>
+      <c r="H6" s="1">
+        <v>7</v>
+      </c>
+      <c r="I6" s="1">
+        <v>174</v>
+      </c>
+      <c r="J6" s="1">
+        <v>113</v>
+      </c>
+      <c r="K6" s="1">
+        <v>17292</v>
+      </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="2"/>
       <c r="B7" s="1" t="s">
         <v>7</v>
@@ -581,8 +4518,20 @@
       <c r="G7" t="s">
         <v>10</v>
       </c>
+      <c r="H7" s="1">
+        <v>8</v>
+      </c>
+      <c r="I7" s="1">
+        <v>172</v>
+      </c>
+      <c r="J7" s="1">
+        <v>167</v>
+      </c>
+      <c r="K7" s="1">
+        <v>15508</v>
+      </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>3</v>
       </c>
@@ -605,7 +4554,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="2"/>
       <c r="B9" s="1" t="s">
         <v>6</v>
@@ -626,7 +4575,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="2"/>
       <c r="B10" s="1" t="s">
         <v>7</v>
@@ -647,7 +4596,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>4</v>
       </c>
@@ -670,7 +4619,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="2"/>
       <c r="B12" s="1" t="s">
         <v>6</v>
@@ -691,7 +4640,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="2"/>
       <c r="B13" s="1" t="s">
         <v>7</v>
@@ -712,7 +4661,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>5</v>
       </c>
@@ -735,7 +4684,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="2"/>
       <c r="B15" s="1" t="s">
         <v>6</v>
@@ -756,7 +4705,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="2"/>
       <c r="B16" s="1" t="s">
         <v>7</v>
@@ -877,15 +4826,16 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EDB7404-E0CA-48BA-85E8-AB2EDCD4672B}">
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:K19"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="L20" sqref="L20"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -899,7 +4849,7 @@
     <col min="7" max="7" width="21.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>8</v>
       </c>
@@ -921,8 +4871,20 @@
       <c r="G1" s="3" t="s">
         <v>9</v>
       </c>
+      <c r="H1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -944,8 +4906,20 @@
       <c r="G2" t="s">
         <v>11</v>
       </c>
+      <c r="H2" s="1">
+        <v>3</v>
+      </c>
+      <c r="I2" s="1">
+        <v>33</v>
+      </c>
+      <c r="J2" s="1">
+        <v>15</v>
+      </c>
+      <c r="K2" s="1">
+        <v>392</v>
+      </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
       <c r="B3" s="1" t="s">
         <v>6</v>
@@ -965,8 +4939,20 @@
       <c r="G3" t="s">
         <v>11</v>
       </c>
+      <c r="H3" s="1">
+        <v>4</v>
+      </c>
+      <c r="I3" s="1">
+        <v>54</v>
+      </c>
+      <c r="J3" s="1">
+        <v>40</v>
+      </c>
+      <c r="K3" s="1">
+        <v>1507</v>
+      </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="2"/>
       <c r="B4" s="1" t="s">
         <v>7</v>
@@ -986,8 +4972,20 @@
       <c r="G4" t="s">
         <v>11</v>
       </c>
+      <c r="H4" s="1">
+        <v>5</v>
+      </c>
+      <c r="I4" s="1">
+        <v>89</v>
+      </c>
+      <c r="J4" s="1">
+        <v>65</v>
+      </c>
+      <c r="K4" s="1">
+        <v>4405</v>
+      </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>2</v>
       </c>
@@ -1009,8 +5007,20 @@
       <c r="G5" t="s">
         <v>11</v>
       </c>
+      <c r="H5" s="1">
+        <v>6</v>
+      </c>
+      <c r="I5" s="1">
+        <v>113</v>
+      </c>
+      <c r="J5" s="1">
+        <v>96</v>
+      </c>
+      <c r="K5" s="1">
+        <v>10865</v>
+      </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="2"/>
       <c r="B6" s="1" t="s">
         <v>6</v>
@@ -1030,8 +5040,20 @@
       <c r="G6" t="s">
         <v>11</v>
       </c>
+      <c r="H6" s="1">
+        <v>7</v>
+      </c>
+      <c r="I6" s="1">
+        <v>174</v>
+      </c>
+      <c r="J6" s="1">
+        <v>117</v>
+      </c>
+      <c r="K6" s="1">
+        <v>17519</v>
+      </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="2"/>
       <c r="B7" s="1" t="s">
         <v>7</v>
@@ -1051,8 +5073,20 @@
       <c r="G7" t="s">
         <v>11</v>
       </c>
+      <c r="H7" s="1">
+        <v>8</v>
+      </c>
+      <c r="I7" s="1">
+        <v>172</v>
+      </c>
+      <c r="J7" s="1">
+        <v>172</v>
+      </c>
+      <c r="K7" s="1">
+        <v>18686</v>
+      </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>3</v>
       </c>
@@ -1075,7 +5109,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="2"/>
       <c r="B9" s="1" t="s">
         <v>6</v>
@@ -1096,7 +5130,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="2"/>
       <c r="B10" s="1" t="s">
         <v>7</v>
@@ -1117,7 +5151,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>4</v>
       </c>
@@ -1140,7 +5174,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="2"/>
       <c r="B12" s="1" t="s">
         <v>6</v>
@@ -1161,7 +5195,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="2"/>
       <c r="B13" s="1" t="s">
         <v>7</v>
@@ -1182,7 +5216,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>5</v>
       </c>
@@ -1205,7 +5239,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="2"/>
       <c r="B15" s="1" t="s">
         <v>6</v>
@@ -1226,7 +5260,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="2"/>
       <c r="B16" s="1" t="s">
         <v>7</v>
@@ -1322,5 +5356,6 @@
     <mergeCell ref="A17:A19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Statistics.xlsx
+++ b/Statistics.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Corvus\Documents\CSE LAB VI Semester\AI Lab\AI-assignments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A95D2EF-1010-4C0B-985E-EF4BDE971454}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2903CDA9-93D8-45EC-9267-A87461323CEE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -126,13 +126,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Good" xfId="1" builtinId="26"/>
@@ -152,347 +152,6 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$I$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>BFS</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$I$2:$I$7</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>33</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>53</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>88</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>113</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>174</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>172</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-01A7-46F7-B747-8C8B9AA44337}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$J$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>DFS</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$J$2:$J$7</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>33</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>91</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>113</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>167</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-01A7-46F7-B747-8C8B9AA44337}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="516219080"/>
-        <c:axId val="516220392"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="516219080"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="516220392"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="516220392"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="516219080"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -893,6 +552,529 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-IN" sz="1600" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>States explored in BFS , DFS and DFID </a:t>
+            </a:r>
+            <a:endParaRPr lang="en-IN" sz="1200">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$I$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>BFS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$I$2:$I$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>113</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>172</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-17EF-40B7-A9B9-5ADF6EFF4EBD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$J$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>DFS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$J$2:$J$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>113</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>167</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-17EF-40B7-A9B9-5ADF6EFF4EBD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="431656744"/>
+        <c:axId val="431659368"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="431656744"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="431659368"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="431659368"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                  <a:lnSpc>
+                    <a:spcPct val="100000"/>
+                  </a:lnSpc>
+                  <a:spcBef>
+                    <a:spcPts val="0"/>
+                  </a:spcBef>
+                  <a:spcAft>
+                    <a:spcPts val="0"/>
+                  </a:spcAft>
+                  <a:buClrTx/>
+                  <a:buSzTx/>
+                  <a:buFontTx/>
+                  <a:buNone/>
+                  <a:tabLst/>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-IN" sz="1800" b="0" i="0" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t> </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-IN" sz="1200" b="0" i="0" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Number of States Explored</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-IN">
+                  <a:effectLst/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:sysClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="431656744"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
@@ -907,7 +1089,63 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:autoTitleDeleted val="1"/>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-IN" baseline="0"/>
+              <a:t>States explored in BFS , DFS and DFID </a:t>
+            </a:r>
+            <a:endParaRPr lang="en-IN"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
@@ -1116,6 +1354,66 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-IN" sz="1100"/>
+                  <a:t> Number</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-IN" sz="1100" baseline="0"/>
+                  <a:t> of States Explored </a:t>
+                </a:r>
+                <a:endParaRPr lang="en-IN" sz="1100"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -3863,23 +4161,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>142008</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>148934</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>103909</xdr:rowOff>
+      <xdr:rowOff>159326</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>1097972</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>145473</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>135080</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>20781</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="6" name="Chart 5">
+        <xdr:cNvPr id="7" name="Chart 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9F28035E-6C1D-411B-AA88-5CAEAF1368AC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FCECC73A-EC95-4A6E-8164-2D9591277709}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3899,23 +4197,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>183571</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>329045</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>159326</xdr:rowOff>
+      <xdr:rowOff>166253</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>169717</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>176645</xdr:colOff>
       <xdr:row>35</xdr:row>
-      <xdr:rowOff>20781</xdr:rowOff>
+      <xdr:rowOff>27708</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="7" name="Chart 6">
+        <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FCECC73A-EC95-4A6E-8164-2D9591277709}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C8490BF7-A068-49BC-BFF6-5A8679DF0BB9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4278,8 +4576,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K22"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:K7"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="F38" sqref="F38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4295,42 +4593,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" s="2">
+      <c r="A2" s="4">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -4365,7 +4663,7 @@
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" s="2"/>
+      <c r="A3" s="4"/>
       <c r="B3" s="1" t="s">
         <v>6</v>
       </c>
@@ -4398,7 +4696,7 @@
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" s="2"/>
+      <c r="A4" s="4"/>
       <c r="B4" s="1" t="s">
         <v>7</v>
       </c>
@@ -4431,7 +4729,7 @@
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5" s="2">
+      <c r="A5" s="4">
         <v>2</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -4466,7 +4764,7 @@
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6" s="2"/>
+      <c r="A6" s="4"/>
       <c r="B6" s="1" t="s">
         <v>6</v>
       </c>
@@ -4499,7 +4797,7 @@
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7" s="2"/>
+      <c r="A7" s="4"/>
       <c r="B7" s="1" t="s">
         <v>7</v>
       </c>
@@ -4532,7 +4830,7 @@
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8" s="2">
+      <c r="A8" s="4">
         <v>3</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -4555,7 +4853,7 @@
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9" s="2"/>
+      <c r="A9" s="4"/>
       <c r="B9" s="1" t="s">
         <v>6</v>
       </c>
@@ -4576,7 +4874,7 @@
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10" s="2"/>
+      <c r="A10" s="4"/>
       <c r="B10" s="1" t="s">
         <v>7</v>
       </c>
@@ -4597,7 +4895,7 @@
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A11" s="2">
+      <c r="A11" s="4">
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -4620,7 +4918,7 @@
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A12" s="2"/>
+      <c r="A12" s="4"/>
       <c r="B12" s="1" t="s">
         <v>6</v>
       </c>
@@ -4641,7 +4939,7 @@
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A13" s="2"/>
+      <c r="A13" s="4"/>
       <c r="B13" s="1" t="s">
         <v>7</v>
       </c>
@@ -4662,7 +4960,7 @@
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A14" s="2">
+      <c r="A14" s="4">
         <v>5</v>
       </c>
       <c r="B14" s="1" t="s">
@@ -4685,7 +4983,7 @@
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A15" s="2"/>
+      <c r="A15" s="4"/>
       <c r="B15" s="1" t="s">
         <v>6</v>
       </c>
@@ -4706,7 +5004,7 @@
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A16" s="2"/>
+      <c r="A16" s="4"/>
       <c r="B16" s="1" t="s">
         <v>7</v>
       </c>
@@ -4727,7 +5025,7 @@
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="2">
+      <c r="A17" s="4">
         <v>6</v>
       </c>
       <c r="B17" s="1" t="s">
@@ -4750,7 +5048,7 @@
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="2"/>
+      <c r="A18" s="4"/>
       <c r="B18" s="1" t="s">
         <v>6</v>
       </c>
@@ -4771,7 +5069,7 @@
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="2"/>
+      <c r="A19" s="4"/>
       <c r="B19" s="1" t="s">
         <v>7</v>
       </c>
@@ -4792,7 +5090,7 @@
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" s="4"/>
+      <c r="A20" s="3"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
@@ -4800,7 +5098,7 @@
       <c r="F20" s="1"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" s="4"/>
+      <c r="A21" s="3"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
@@ -4808,7 +5106,7 @@
       <c r="F21" s="1"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" s="4"/>
+      <c r="A22" s="3"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
@@ -4817,12 +5115,12 @@
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="A17:A19"/>
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="A5:A7"/>
     <mergeCell ref="A8:A10"/>
     <mergeCell ref="A11:A13"/>
     <mergeCell ref="A14:A16"/>
-    <mergeCell ref="A17:A19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4834,8 +5132,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EDB7404-E0CA-48BA-85E8-AB2EDCD4672B}">
   <dimension ref="A1:K19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="E38" sqref="E38"/>
+    <sheetView topLeftCell="A19" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4850,42 +5148,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" s="2">
+      <c r="A2" s="4">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -4920,7 +5218,7 @@
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" s="2"/>
+      <c r="A3" s="4"/>
       <c r="B3" s="1" t="s">
         <v>6</v>
       </c>
@@ -4953,7 +5251,7 @@
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" s="2"/>
+      <c r="A4" s="4"/>
       <c r="B4" s="1" t="s">
         <v>7</v>
       </c>
@@ -4986,7 +5284,7 @@
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5" s="2">
+      <c r="A5" s="4">
         <v>2</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -5021,7 +5319,7 @@
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6" s="2"/>
+      <c r="A6" s="4"/>
       <c r="B6" s="1" t="s">
         <v>6</v>
       </c>
@@ -5054,7 +5352,7 @@
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7" s="2"/>
+      <c r="A7" s="4"/>
       <c r="B7" s="1" t="s">
         <v>7</v>
       </c>
@@ -5087,7 +5385,7 @@
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8" s="2">
+      <c r="A8" s="4">
         <v>3</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -5110,7 +5408,7 @@
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9" s="2"/>
+      <c r="A9" s="4"/>
       <c r="B9" s="1" t="s">
         <v>6</v>
       </c>
@@ -5131,7 +5429,7 @@
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10" s="2"/>
+      <c r="A10" s="4"/>
       <c r="B10" s="1" t="s">
         <v>7</v>
       </c>
@@ -5152,7 +5450,7 @@
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A11" s="2">
+      <c r="A11" s="4">
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -5175,7 +5473,7 @@
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A12" s="2"/>
+      <c r="A12" s="4"/>
       <c r="B12" s="1" t="s">
         <v>6</v>
       </c>
@@ -5196,7 +5494,7 @@
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A13" s="2"/>
+      <c r="A13" s="4"/>
       <c r="B13" s="1" t="s">
         <v>7</v>
       </c>
@@ -5217,7 +5515,7 @@
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A14" s="2">
+      <c r="A14" s="4">
         <v>5</v>
       </c>
       <c r="B14" s="1" t="s">
@@ -5240,7 +5538,7 @@
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A15" s="2"/>
+      <c r="A15" s="4"/>
       <c r="B15" s="1" t="s">
         <v>6</v>
       </c>
@@ -5261,7 +5559,7 @@
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A16" s="2"/>
+      <c r="A16" s="4"/>
       <c r="B16" s="1" t="s">
         <v>7</v>
       </c>
@@ -5282,7 +5580,7 @@
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="2">
+      <c r="A17" s="4">
         <v>6</v>
       </c>
       <c r="B17" s="1" t="s">
@@ -5305,7 +5603,7 @@
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="2"/>
+      <c r="A18" s="4"/>
       <c r="B18" s="1" t="s">
         <v>6</v>
       </c>
@@ -5326,7 +5624,7 @@
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="2"/>
+      <c r="A19" s="4"/>
       <c r="B19" s="1" t="s">
         <v>7</v>
       </c>
@@ -5348,12 +5646,12 @@
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="A17:A19"/>
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="A5:A7"/>
     <mergeCell ref="A8:A10"/>
     <mergeCell ref="A11:A13"/>
     <mergeCell ref="A14:A16"/>
-    <mergeCell ref="A17:A19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
